--- a/doc/数据结构/数据结构-v0.1.xlsx
+++ b/doc/数据结构/数据结构-v0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="豆瓣分类表(db_category)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,155 +62,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>译者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRANSLATOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISHER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUBLISHDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAGENUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOKINTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUTHORINTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERTDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATEDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db_book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>译者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版社</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISBN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作品简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出版日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRANSLATOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISHER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PUBLISHDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRADE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAGENUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WORDS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOKINTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUTHORINTRO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTENTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERTDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATEDATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERTIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插入时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新时间</t>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PICURL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封面图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,11 +584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -582,7 +598,7 @@
     <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,12 +618,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -619,32 +635,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -662,13 +678,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
@@ -677,7 +693,7 @@
     <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,206 +713,332 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>